--- a/doc/数据文件.xlsx
+++ b/doc/数据文件.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Python\Calculation-Method-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9C71F9-02C6-47B4-916E-C459110F194B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A75EB-0ABF-4922-A78B-B00427C100DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共轭梯度法" sheetId="1" r:id="rId1"/>
+    <sheet name="最小二乘拟合" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="877">
   <si>
     <t>Data-Time</t>
   </si>
@@ -2654,13 +2655,19 @@
   <si>
     <t>N=200</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Root mean square error</t>
+  </si>
+  <si>
+    <t>0.0005744292123229425</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2694,8 +2701,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2738,6 +2753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2751,19 +2772,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2785,6 +2800,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3068,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:O406"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3086,99 +3116,99 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="G3" s="3" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="G3" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="M3" s="3" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="10">
+      <c r="B4" s="8">
         <v>44526.614618055559</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="G4" s="4" t="s">
+      <c r="C4" s="9"/>
+      <c r="G4" s="10" t="s">
         <v>874</v>
       </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="M4" s="4" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="M4" s="10" t="s">
         <v>873</v>
       </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="8">
         <v>44533.655995370369</v>
       </c>
-      <c r="I5" s="11"/>
-      <c r="M5" s="9" t="s">
+      <c r="I5" s="9"/>
+      <c r="M5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="10">
+      <c r="N5" s="8">
         <v>44533.663576388892</v>
       </c>
-      <c r="O5" s="11"/>
+      <c r="O5" s="9"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="M6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="6" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3186,7 +3216,7 @@
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -3204,7 +3234,7 @@
       <c r="M7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -3215,7 +3245,7 @@
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -3233,7 +3263,7 @@
       <c r="M8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -3244,7 +3274,7 @@
       <c r="A9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -3262,7 +3292,7 @@
       <c r="M9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="O9" s="2" t="s">
@@ -3273,7 +3303,7 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -3291,7 +3321,7 @@
       <c r="M10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -3302,7 +3332,7 @@
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
@@ -3320,7 +3350,7 @@
       <c r="M11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -3331,7 +3361,7 @@
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
@@ -3349,7 +3379,7 @@
       <c r="M12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -3360,7 +3390,7 @@
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
@@ -3378,7 +3408,7 @@
       <c r="M13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="3" t="s">
         <v>393</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -3389,7 +3419,7 @@
       <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
@@ -3407,7 +3437,7 @@
       <c r="M14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="3" t="s">
         <v>395</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -3418,7 +3448,7 @@
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -3436,7 +3466,7 @@
       <c r="M15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="3" t="s">
         <v>397</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -3447,7 +3477,7 @@
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -3465,7 +3495,7 @@
       <c r="M16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="3" t="s">
         <v>399</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -3476,7 +3506,7 @@
       <c r="A17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -3494,7 +3524,7 @@
       <c r="M17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="3" t="s">
         <v>401</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -3505,7 +3535,7 @@
       <c r="A18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3523,7 +3553,7 @@
       <c r="M18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="3" t="s">
         <v>403</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -3534,7 +3564,7 @@
       <c r="A19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -3552,7 +3582,7 @@
       <c r="M19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="3" t="s">
         <v>405</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -3563,7 +3593,7 @@
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>47</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -3581,7 +3611,7 @@
       <c r="M20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="3" t="s">
         <v>407</v>
       </c>
       <c r="O20" s="2" t="s">
@@ -3592,7 +3622,7 @@
       <c r="A21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -3610,7 +3640,7 @@
       <c r="M21" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N21" s="5" t="s">
+      <c r="N21" s="3" t="s">
         <v>409</v>
       </c>
       <c r="O21" s="2" t="s">
@@ -3621,7 +3651,7 @@
       <c r="A22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C22" s="2" t="s">
@@ -3639,7 +3669,7 @@
       <c r="M22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="3" t="s">
         <v>411</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -3650,7 +3680,7 @@
       <c r="A23" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -3668,7 +3698,7 @@
       <c r="M23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="3" t="s">
         <v>413</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -3679,7 +3709,7 @@
       <c r="A24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
       <c r="C24" s="2" t="s">
@@ -3697,7 +3727,7 @@
       <c r="M24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N24" s="5" t="s">
+      <c r="N24" s="3" t="s">
         <v>415</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -3708,7 +3738,7 @@
       <c r="A25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -3726,7 +3756,7 @@
       <c r="M25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N25" s="5" t="s">
+      <c r="N25" s="3" t="s">
         <v>417</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -3737,7 +3767,7 @@
       <c r="A26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -3755,7 +3785,7 @@
       <c r="M26" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N26" s="5" t="s">
+      <c r="N26" s="3" t="s">
         <v>419</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -3766,7 +3796,7 @@
       <c r="A27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>67</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -3784,7 +3814,7 @@
       <c r="M27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="N27" s="3" t="s">
         <v>421</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -3795,7 +3825,7 @@
       <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -3813,7 +3843,7 @@
       <c r="M28" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N28" s="5" t="s">
+      <c r="N28" s="3" t="s">
         <v>423</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -3824,7 +3854,7 @@
       <c r="A29" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -3842,7 +3872,7 @@
       <c r="M29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="3" t="s">
         <v>425</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -3853,7 +3883,7 @@
       <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="2" t="s">
@@ -3871,7 +3901,7 @@
       <c r="M30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N30" s="5" t="s">
+      <c r="N30" s="3" t="s">
         <v>427</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -3882,7 +3912,7 @@
       <c r="A31" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>79</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3900,7 +3930,7 @@
       <c r="M31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="3" t="s">
         <v>429</v>
       </c>
       <c r="O31" s="2" t="s">
@@ -3911,7 +3941,7 @@
       <c r="A32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>82</v>
       </c>
       <c r="C32" s="2" t="s">
@@ -3929,7 +3959,7 @@
       <c r="M32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="N32" s="3" t="s">
         <v>431</v>
       </c>
       <c r="O32" s="2" t="s">
@@ -3940,7 +3970,7 @@
       <c r="A33" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -3958,7 +3988,7 @@
       <c r="M33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="N33" s="5" t="s">
+      <c r="N33" s="3" t="s">
         <v>433</v>
       </c>
       <c r="O33" s="2" t="s">
@@ -3969,7 +3999,7 @@
       <c r="A34" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C34" s="2" t="s">
@@ -3987,7 +4017,7 @@
       <c r="M34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="N34" s="5" t="s">
+      <c r="N34" s="3" t="s">
         <v>435</v>
       </c>
       <c r="O34" s="2" t="s">
@@ -3998,7 +4028,7 @@
       <c r="A35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C35" s="2" t="s">
@@ -4016,7 +4046,7 @@
       <c r="M35" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N35" s="5" t="s">
+      <c r="N35" s="3" t="s">
         <v>437</v>
       </c>
       <c r="O35" s="2" t="s">
@@ -4027,7 +4057,7 @@
       <c r="A36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>93</v>
       </c>
       <c r="C36" s="2" t="s">
@@ -4045,7 +4075,7 @@
       <c r="M36" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="N36" s="5" t="s">
+      <c r="N36" s="3" t="s">
         <v>439</v>
       </c>
       <c r="O36" s="2" t="s">
@@ -4056,7 +4086,7 @@
       <c r="A37" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
@@ -4074,7 +4104,7 @@
       <c r="M37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N37" s="5" t="s">
+      <c r="N37" s="3" t="s">
         <v>441</v>
       </c>
       <c r="O37" s="2" t="s">
@@ -4085,7 +4115,7 @@
       <c r="A38" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
@@ -4103,7 +4133,7 @@
       <c r="M38" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N38" s="5" t="s">
+      <c r="N38" s="3" t="s">
         <v>443</v>
       </c>
       <c r="O38" s="2" t="s">
@@ -4114,7 +4144,7 @@
       <c r="A39" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C39" s="2" t="s">
@@ -4132,7 +4162,7 @@
       <c r="M39" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N39" s="5" t="s">
+      <c r="N39" s="3" t="s">
         <v>445</v>
       </c>
       <c r="O39" s="2" t="s">
@@ -4143,7 +4173,7 @@
       <c r="A40" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -4161,7 +4191,7 @@
       <c r="M40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="N40" s="5" t="s">
+      <c r="N40" s="3" t="s">
         <v>447</v>
       </c>
       <c r="O40" s="2" t="s">
@@ -4172,7 +4202,7 @@
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="2" t="s">
@@ -4190,7 +4220,7 @@
       <c r="M41" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="3" t="s">
         <v>449</v>
       </c>
       <c r="O41" s="2" t="s">
@@ -4201,7 +4231,7 @@
       <c r="A42" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C42" s="2" t="s">
@@ -4219,7 +4249,7 @@
       <c r="M42" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="N42" s="5" t="s">
+      <c r="N42" s="3" t="s">
         <v>451</v>
       </c>
       <c r="O42" s="2" t="s">
@@ -4230,7 +4260,7 @@
       <c r="A43" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C43" s="2" t="s">
@@ -4248,7 +4278,7 @@
       <c r="M43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="3" t="s">
         <v>453</v>
       </c>
       <c r="O43" s="2" t="s">
@@ -4259,7 +4289,7 @@
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C44" s="2" t="s">
@@ -4277,7 +4307,7 @@
       <c r="M44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="N44" s="5" t="s">
+      <c r="N44" s="3" t="s">
         <v>455</v>
       </c>
       <c r="O44" s="2" t="s">
@@ -4288,7 +4318,7 @@
       <c r="A45" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C45" s="2" t="s">
@@ -4306,7 +4336,7 @@
       <c r="M45" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="N45" s="5" t="s">
+      <c r="N45" s="3" t="s">
         <v>457</v>
       </c>
       <c r="O45" s="2" t="s">
@@ -4317,7 +4347,7 @@
       <c r="A46" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>123</v>
       </c>
       <c r="C46" s="2" t="s">
@@ -4335,7 +4365,7 @@
       <c r="M46" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="N46" s="5" t="s">
+      <c r="N46" s="3" t="s">
         <v>459</v>
       </c>
       <c r="O46" s="2" t="s">
@@ -4346,7 +4376,7 @@
       <c r="A47" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C47" s="2" t="s">
@@ -4364,7 +4394,7 @@
       <c r="M47" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="3" t="s">
         <v>461</v>
       </c>
       <c r="O47" s="2" t="s">
@@ -4375,7 +4405,7 @@
       <c r="A48" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
@@ -4393,7 +4423,7 @@
       <c r="M48" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="N48" s="5" t="s">
+      <c r="N48" s="3" t="s">
         <v>463</v>
       </c>
       <c r="O48" s="2" t="s">
@@ -4404,7 +4434,7 @@
       <c r="A49" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C49" s="2" t="s">
@@ -4422,7 +4452,7 @@
       <c r="M49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="N49" s="5" t="s">
+      <c r="N49" s="3" t="s">
         <v>465</v>
       </c>
       <c r="O49" s="2" t="s">
@@ -4433,7 +4463,7 @@
       <c r="A50" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C50" s="2" t="s">
@@ -4451,7 +4481,7 @@
       <c r="M50" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="N50" s="5" t="s">
+      <c r="N50" s="3" t="s">
         <v>467</v>
       </c>
       <c r="O50" s="2" t="s">
@@ -4462,7 +4492,7 @@
       <c r="A51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C51" s="2" t="s">
@@ -4480,7 +4510,7 @@
       <c r="M51" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="3" t="s">
         <v>469</v>
       </c>
       <c r="O51" s="2" t="s">
@@ -4491,7 +4521,7 @@
       <c r="A52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C52" s="2" t="s">
@@ -4509,7 +4539,7 @@
       <c r="M52" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="3" t="s">
         <v>471</v>
       </c>
       <c r="O52" s="2" t="s">
@@ -4520,7 +4550,7 @@
       <c r="A53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C53" s="2" t="s">
@@ -4538,7 +4568,7 @@
       <c r="M53" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="3" t="s">
         <v>473</v>
       </c>
       <c r="O53" s="2" t="s">
@@ -4549,7 +4579,7 @@
       <c r="A54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C54" s="2" t="s">
@@ -4567,7 +4597,7 @@
       <c r="M54" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="N54" s="5" t="s">
+      <c r="N54" s="3" t="s">
         <v>475</v>
       </c>
       <c r="O54" s="2" t="s">
@@ -4578,7 +4608,7 @@
       <c r="A55" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C55" s="2" t="s">
@@ -4596,7 +4626,7 @@
       <c r="M55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="3" t="s">
         <v>477</v>
       </c>
       <c r="O55" s="2" t="s">
@@ -4621,7 +4651,7 @@
       <c r="M56" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="3" t="s">
         <v>479</v>
       </c>
       <c r="O56" s="2" t="s">
@@ -4646,7 +4676,7 @@
       <c r="M57" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="3" t="s">
         <v>481</v>
       </c>
       <c r="O57" s="2" t="s">
@@ -4671,7 +4701,7 @@
       <c r="M58" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="N58" s="3" t="s">
         <v>483</v>
       </c>
       <c r="O58" s="2" t="s">
@@ -4696,7 +4726,7 @@
       <c r="M59" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="N59" s="5" t="s">
+      <c r="N59" s="3" t="s">
         <v>485</v>
       </c>
       <c r="O59" s="2" t="s">
@@ -4721,7 +4751,7 @@
       <c r="M60" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="3" t="s">
         <v>487</v>
       </c>
       <c r="O60" s="2" t="s">
@@ -4746,7 +4776,7 @@
       <c r="M61" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="N61" s="5" t="s">
+      <c r="N61" s="3" t="s">
         <v>488</v>
       </c>
       <c r="O61" s="2" t="s">
@@ -4771,7 +4801,7 @@
       <c r="M62" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="3" t="s">
         <v>489</v>
       </c>
       <c r="O62" s="2" t="s">
@@ -4796,7 +4826,7 @@
       <c r="M63" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="3" t="s">
         <v>491</v>
       </c>
       <c r="O63" s="2" t="s">
@@ -4821,7 +4851,7 @@
       <c r="M64" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="3" t="s">
         <v>493</v>
       </c>
       <c r="O64" s="2" t="s">
@@ -4846,7 +4876,7 @@
       <c r="M65" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="3" t="s">
         <v>495</v>
       </c>
       <c r="O65" s="2" t="s">
@@ -4871,7 +4901,7 @@
       <c r="M66" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="3" t="s">
         <v>497</v>
       </c>
       <c r="O66" s="2" t="s">
@@ -4896,7 +4926,7 @@
       <c r="M67" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="N67" s="5" t="s">
+      <c r="N67" s="3" t="s">
         <v>499</v>
       </c>
       <c r="O67" s="2" t="s">
@@ -4921,7 +4951,7 @@
       <c r="M68" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="3" t="s">
         <v>501</v>
       </c>
       <c r="O68" s="2" t="s">
@@ -4946,7 +4976,7 @@
       <c r="M69" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N69" s="5" t="s">
+      <c r="N69" s="3" t="s">
         <v>503</v>
       </c>
       <c r="O69" s="2" t="s">
@@ -4971,7 +5001,7 @@
       <c r="M70" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="3" t="s">
         <v>505</v>
       </c>
       <c r="O70" s="2" t="s">
@@ -4996,7 +5026,7 @@
       <c r="M71" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="3" t="s">
         <v>507</v>
       </c>
       <c r="O71" s="2" t="s">
@@ -5021,7 +5051,7 @@
       <c r="M72" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="N72" s="5" t="s">
+      <c r="N72" s="3" t="s">
         <v>509</v>
       </c>
       <c r="O72" s="2" t="s">
@@ -5046,7 +5076,7 @@
       <c r="M73" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="3" t="s">
         <v>511</v>
       </c>
       <c r="O73" s="2" t="s">
@@ -5071,7 +5101,7 @@
       <c r="M74" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="N74" s="5" t="s">
+      <c r="N74" s="3" t="s">
         <v>513</v>
       </c>
       <c r="O74" s="2" t="s">
@@ -5096,7 +5126,7 @@
       <c r="M75" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="3" t="s">
         <v>515</v>
       </c>
       <c r="O75" s="2" t="s">
@@ -5121,7 +5151,7 @@
       <c r="M76" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="3" t="s">
         <v>517</v>
       </c>
       <c r="O76" s="2" t="s">
@@ -5146,7 +5176,7 @@
       <c r="M77" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="3" t="s">
         <v>519</v>
       </c>
       <c r="O77" s="2" t="s">
@@ -5171,7 +5201,7 @@
       <c r="M78" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="3" t="s">
         <v>521</v>
       </c>
       <c r="O78" s="2" t="s">
@@ -5196,7 +5226,7 @@
       <c r="M79" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="3" t="s">
         <v>523</v>
       </c>
       <c r="O79" s="2" t="s">
@@ -5221,7 +5251,7 @@
       <c r="M80" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="N80" s="5" t="s">
+      <c r="N80" s="3" t="s">
         <v>525</v>
       </c>
       <c r="O80" s="2" t="s">
@@ -5246,7 +5276,7 @@
       <c r="M81" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="N81" s="3" t="s">
         <v>527</v>
       </c>
       <c r="O81" s="2" t="s">
@@ -5271,7 +5301,7 @@
       <c r="M82" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="3" t="s">
         <v>529</v>
       </c>
       <c r="O82" s="2" t="s">
@@ -5296,7 +5326,7 @@
       <c r="M83" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="N83" s="5" t="s">
+      <c r="N83" s="3" t="s">
         <v>531</v>
       </c>
       <c r="O83" s="2" t="s">
@@ -5321,7 +5351,7 @@
       <c r="M84" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="N84" s="5" t="s">
+      <c r="N84" s="3" t="s">
         <v>533</v>
       </c>
       <c r="O84" s="2" t="s">
@@ -5346,7 +5376,7 @@
       <c r="M85" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="3" t="s">
         <v>535</v>
       </c>
       <c r="O85" s="2" t="s">
@@ -5371,7 +5401,7 @@
       <c r="M86" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="N86" s="5" t="s">
+      <c r="N86" s="3" t="s">
         <v>537</v>
       </c>
       <c r="O86" s="2" t="s">
@@ -5396,7 +5426,7 @@
       <c r="M87" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="3" t="s">
         <v>539</v>
       </c>
       <c r="O87" s="2" t="s">
@@ -5421,7 +5451,7 @@
       <c r="M88" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="3" t="s">
         <v>540</v>
       </c>
       <c r="O88" s="2" t="s">
@@ -5446,7 +5476,7 @@
       <c r="M89" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="N89" s="5" t="s">
+      <c r="N89" s="3" t="s">
         <v>542</v>
       </c>
       <c r="O89" s="2" t="s">
@@ -5471,7 +5501,7 @@
       <c r="M90" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="N90" s="3" t="s">
         <v>543</v>
       </c>
       <c r="O90" s="2" t="s">
@@ -5496,7 +5526,7 @@
       <c r="M91" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="3" t="s">
         <v>545</v>
       </c>
       <c r="O91" s="2" t="s">
@@ -5521,7 +5551,7 @@
       <c r="M92" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N92" s="3" t="s">
         <v>547</v>
       </c>
       <c r="O92" s="2" t="s">
@@ -5546,7 +5576,7 @@
       <c r="M93" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="N93" s="5" t="s">
+      <c r="N93" s="3" t="s">
         <v>549</v>
       </c>
       <c r="O93" s="2" t="s">
@@ -5571,7 +5601,7 @@
       <c r="M94" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="N94" s="5" t="s">
+      <c r="N94" s="3" t="s">
         <v>551</v>
       </c>
       <c r="O94" s="2" t="s">
@@ -5596,7 +5626,7 @@
       <c r="M95" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="N95" s="5" t="s">
+      <c r="N95" s="3" t="s">
         <v>553</v>
       </c>
       <c r="O95" s="2" t="s">
@@ -5621,7 +5651,7 @@
       <c r="M96" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="N96" s="5" t="s">
+      <c r="N96" s="3" t="s">
         <v>555</v>
       </c>
       <c r="O96" s="2" t="s">
@@ -5646,7 +5676,7 @@
       <c r="M97" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="3" t="s">
         <v>557</v>
       </c>
       <c r="O97" s="2" t="s">
@@ -5671,7 +5701,7 @@
       <c r="M98" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="N98" s="5" t="s">
+      <c r="N98" s="3" t="s">
         <v>559</v>
       </c>
       <c r="O98" s="2" t="s">
@@ -5696,7 +5726,7 @@
       <c r="M99" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="N99" s="5" t="s">
+      <c r="N99" s="3" t="s">
         <v>561</v>
       </c>
       <c r="O99" s="2" t="s">
@@ -5721,7 +5751,7 @@
       <c r="M100" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="N100" s="5" t="s">
+      <c r="N100" s="3" t="s">
         <v>563</v>
       </c>
       <c r="O100" s="2" t="s">
@@ -5746,7 +5776,7 @@
       <c r="M101" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="N101" s="5" t="s">
+      <c r="N101" s="3" t="s">
         <v>565</v>
       </c>
       <c r="O101" s="2" t="s">
@@ -5771,7 +5801,7 @@
       <c r="M102" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="N102" s="3" t="s">
         <v>567</v>
       </c>
       <c r="O102" s="2" t="s">
@@ -5796,7 +5826,7 @@
       <c r="M103" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="N103" s="5" t="s">
+      <c r="N103" s="3" t="s">
         <v>569</v>
       </c>
       <c r="O103" s="2" t="s">
@@ -5821,7 +5851,7 @@
       <c r="M104" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="N104" s="5" t="s">
+      <c r="N104" s="3" t="s">
         <v>571</v>
       </c>
       <c r="O104" s="2" t="s">
@@ -5846,7 +5876,7 @@
       <c r="M105" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="3" t="s">
         <v>573</v>
       </c>
       <c r="O105" s="2" t="s">
@@ -5866,7 +5896,7 @@
       <c r="M106" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="N106" s="5" t="s">
+      <c r="N106" s="3" t="s">
         <v>575</v>
       </c>
       <c r="O106" s="2" t="s">
@@ -5882,7 +5912,7 @@
       <c r="M107" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="N107" s="5" t="s">
+      <c r="N107" s="3" t="s">
         <v>578</v>
       </c>
       <c r="O107" s="2" t="s">
@@ -5898,7 +5928,7 @@
       <c r="M108" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="N108" s="5" t="s">
+      <c r="N108" s="3" t="s">
         <v>581</v>
       </c>
       <c r="O108" s="2" t="s">
@@ -5914,7 +5944,7 @@
       <c r="M109" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="N109" s="3" t="s">
         <v>584</v>
       </c>
       <c r="O109" s="2" t="s">
@@ -5930,7 +5960,7 @@
       <c r="M110" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="N110" s="3" t="s">
         <v>587</v>
       </c>
       <c r="O110" s="2" t="s">
@@ -5946,7 +5976,7 @@
       <c r="M111" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="N111" s="5" t="s">
+      <c r="N111" s="3" t="s">
         <v>590</v>
       </c>
       <c r="O111" s="2" t="s">
@@ -5962,7 +5992,7 @@
       <c r="M112" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="N112" s="5" t="s">
+      <c r="N112" s="3" t="s">
         <v>593</v>
       </c>
       <c r="O112" s="2" t="s">
@@ -5978,7 +6008,7 @@
       <c r="M113" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="3" t="s">
         <v>596</v>
       </c>
       <c r="O113" s="2" t="s">
@@ -5994,7 +6024,7 @@
       <c r="M114" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="3" t="s">
         <v>599</v>
       </c>
       <c r="O114" s="2" t="s">
@@ -6010,7 +6040,7 @@
       <c r="M115" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="N115" s="5" t="s">
+      <c r="N115" s="3" t="s">
         <v>602</v>
       </c>
       <c r="O115" s="2" t="s">
@@ -6026,7 +6056,7 @@
       <c r="M116" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="3" t="s">
         <v>605</v>
       </c>
       <c r="O116" s="2" t="s">
@@ -6042,7 +6072,7 @@
       <c r="M117" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="N117" s="5" t="s">
+      <c r="N117" s="3" t="s">
         <v>608</v>
       </c>
       <c r="O117" s="2" t="s">
@@ -6058,7 +6088,7 @@
       <c r="M118" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="N118" s="5" t="s">
+      <c r="N118" s="3" t="s">
         <v>611</v>
       </c>
       <c r="O118" s="2" t="s">
@@ -6074,7 +6104,7 @@
       <c r="M119" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="3" t="s">
         <v>614</v>
       </c>
       <c r="O119" s="2" t="s">
@@ -6090,7 +6120,7 @@
       <c r="M120" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="N120" s="5" t="s">
+      <c r="N120" s="3" t="s">
         <v>616</v>
       </c>
       <c r="O120" s="2" t="s">
@@ -6106,7 +6136,7 @@
       <c r="M121" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="N121" s="5" t="s">
+      <c r="N121" s="3" t="s">
         <v>619</v>
       </c>
       <c r="O121" s="2" t="s">
@@ -6122,7 +6152,7 @@
       <c r="M122" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="N122" s="5" t="s">
+      <c r="N122" s="3" t="s">
         <v>622</v>
       </c>
       <c r="O122" s="2" t="s">
@@ -6138,7 +6168,7 @@
       <c r="M123" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="3" t="s">
         <v>625</v>
       </c>
       <c r="O123" s="2" t="s">
@@ -6154,7 +6184,7 @@
       <c r="M124" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="N124" s="5" t="s">
+      <c r="N124" s="3" t="s">
         <v>628</v>
       </c>
       <c r="O124" s="2" t="s">
@@ -6170,7 +6200,7 @@
       <c r="M125" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125" s="3" t="s">
         <v>631</v>
       </c>
       <c r="O125" s="2" t="s">
@@ -6186,7 +6216,7 @@
       <c r="M126" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="N126" s="5" t="s">
+      <c r="N126" s="3" t="s">
         <v>634</v>
       </c>
       <c r="O126" s="2" t="s">
@@ -6202,7 +6232,7 @@
       <c r="M127" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="N127" s="5" t="s">
+      <c r="N127" s="3" t="s">
         <v>637</v>
       </c>
       <c r="O127" s="2" t="s">
@@ -6218,7 +6248,7 @@
       <c r="M128" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="N128" s="5" t="s">
+      <c r="N128" s="3" t="s">
         <v>640</v>
       </c>
       <c r="O128" s="2" t="s">
@@ -6234,7 +6264,7 @@
       <c r="M129" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="3" t="s">
         <v>643</v>
       </c>
       <c r="O129" s="2" t="s">
@@ -6250,7 +6280,7 @@
       <c r="M130" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="N130" s="5" t="s">
+      <c r="N130" s="3" t="s">
         <v>646</v>
       </c>
       <c r="O130" s="2" t="s">
@@ -6266,7 +6296,7 @@
       <c r="M131" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="N131" s="5" t="s">
+      <c r="N131" s="3" t="s">
         <v>649</v>
       </c>
       <c r="O131" s="2" t="s">
@@ -6282,7 +6312,7 @@
       <c r="M132" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="N132" s="5" t="s">
+      <c r="N132" s="3" t="s">
         <v>652</v>
       </c>
       <c r="O132" s="2" t="s">
@@ -6298,7 +6328,7 @@
       <c r="M133" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="N133" s="5" t="s">
+      <c r="N133" s="3" t="s">
         <v>655</v>
       </c>
       <c r="O133" s="2" t="s">
@@ -6314,7 +6344,7 @@
       <c r="M134" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="3" t="s">
         <v>658</v>
       </c>
       <c r="O134" s="2" t="s">
@@ -6330,7 +6360,7 @@
       <c r="M135" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="N135" s="5" t="s">
+      <c r="N135" s="3" t="s">
         <v>661</v>
       </c>
       <c r="O135" s="2" t="s">
@@ -6346,7 +6376,7 @@
       <c r="M136" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="N136" s="5" t="s">
+      <c r="N136" s="3" t="s">
         <v>664</v>
       </c>
       <c r="O136" s="2" t="s">
@@ -6362,7 +6392,7 @@
       <c r="M137" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="N137" s="5" t="s">
+      <c r="N137" s="3" t="s">
         <v>667</v>
       </c>
       <c r="O137" s="2" t="s">
@@ -6378,7 +6408,7 @@
       <c r="M138" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="N138" s="5" t="s">
+      <c r="N138" s="3" t="s">
         <v>670</v>
       </c>
       <c r="O138" s="2" t="s">
@@ -6394,7 +6424,7 @@
       <c r="M139" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="N139" s="5" t="s">
+      <c r="N139" s="3" t="s">
         <v>673</v>
       </c>
       <c r="O139" s="2" t="s">
@@ -6410,7 +6440,7 @@
       <c r="M140" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="N140" s="5" t="s">
+      <c r="N140" s="3" t="s">
         <v>676</v>
       </c>
       <c r="O140" s="2" t="s">
@@ -6426,7 +6456,7 @@
       <c r="M141" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="N141" s="5" t="s">
+      <c r="N141" s="3" t="s">
         <v>679</v>
       </c>
       <c r="O141" s="2" t="s">
@@ -6442,7 +6472,7 @@
       <c r="M142" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N142" s="3" t="s">
         <v>682</v>
       </c>
       <c r="O142" s="2" t="s">
@@ -6458,7 +6488,7 @@
       <c r="M143" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="N143" s="5" t="s">
+      <c r="N143" s="3" t="s">
         <v>685</v>
       </c>
       <c r="O143" s="2" t="s">
@@ -6474,7 +6504,7 @@
       <c r="M144" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="N144" s="5" t="s">
+      <c r="N144" s="3" t="s">
         <v>688</v>
       </c>
       <c r="O144" s="2" t="s">
@@ -6490,7 +6520,7 @@
       <c r="M145" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="N145" s="5" t="s">
+      <c r="N145" s="3" t="s">
         <v>691</v>
       </c>
       <c r="O145" s="2" t="s">
@@ -6506,7 +6536,7 @@
       <c r="M146" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="N146" s="5" t="s">
+      <c r="N146" s="3" t="s">
         <v>694</v>
       </c>
       <c r="O146" s="2" t="s">
@@ -6522,7 +6552,7 @@
       <c r="M147" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="N147" s="5" t="s">
+      <c r="N147" s="3" t="s">
         <v>697</v>
       </c>
       <c r="O147" s="2" t="s">
@@ -6538,7 +6568,7 @@
       <c r="M148" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N148" s="3" t="s">
         <v>700</v>
       </c>
       <c r="O148" s="2" t="s">
@@ -6554,7 +6584,7 @@
       <c r="M149" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="N149" s="5" t="s">
+      <c r="N149" s="3" t="s">
         <v>703</v>
       </c>
       <c r="O149" s="2" t="s">
@@ -6570,7 +6600,7 @@
       <c r="M150" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="3" t="s">
         <v>706</v>
       </c>
       <c r="O150" s="2" t="s">
@@ -6586,7 +6616,7 @@
       <c r="M151" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="N151" s="5" t="s">
+      <c r="N151" s="3" t="s">
         <v>709</v>
       </c>
       <c r="O151" s="2" t="s">
@@ -6602,7 +6632,7 @@
       <c r="M152" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="N152" s="5" t="s">
+      <c r="N152" s="3" t="s">
         <v>712</v>
       </c>
       <c r="O152" s="2" t="s">
@@ -6618,7 +6648,7 @@
       <c r="M153" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N153" s="3" t="s">
         <v>715</v>
       </c>
       <c r="O153" s="2" t="s">
@@ -6634,7 +6664,7 @@
       <c r="M154" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="N154" s="5" t="s">
+      <c r="N154" s="3" t="s">
         <v>718</v>
       </c>
       <c r="O154" s="2" t="s">
@@ -6650,7 +6680,7 @@
       <c r="M155" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="N155" s="5" t="s">
+      <c r="N155" s="3" t="s">
         <v>721</v>
       </c>
       <c r="O155" s="2" t="s">
@@ -6666,7 +6696,7 @@
       <c r="M156" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="3" t="s">
         <v>724</v>
       </c>
       <c r="O156" s="2" t="s">
@@ -6682,7 +6712,7 @@
       <c r="M157" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="N157" s="5" t="s">
+      <c r="N157" s="3" t="s">
         <v>727</v>
       </c>
       <c r="O157" s="2" t="s">
@@ -6698,7 +6728,7 @@
       <c r="M158" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="N158" s="5" t="s">
+      <c r="N158" s="3" t="s">
         <v>730</v>
       </c>
       <c r="O158" s="2" t="s">
@@ -6714,7 +6744,7 @@
       <c r="M159" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="3" t="s">
         <v>733</v>
       </c>
       <c r="O159" s="2" t="s">
@@ -6730,7 +6760,7 @@
       <c r="M160" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="3" t="s">
         <v>736</v>
       </c>
       <c r="O160" s="2" t="s">
@@ -6746,7 +6776,7 @@
       <c r="M161" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="N161" s="5" t="s">
+      <c r="N161" s="3" t="s">
         <v>739</v>
       </c>
       <c r="O161" s="2" t="s">
@@ -6762,7 +6792,7 @@
       <c r="M162" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162" s="3" t="s">
         <v>742</v>
       </c>
       <c r="O162" s="2" t="s">
@@ -6778,7 +6808,7 @@
       <c r="M163" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="N163" s="5" t="s">
+      <c r="N163" s="3" t="s">
         <v>745</v>
       </c>
       <c r="O163" s="2" t="s">
@@ -6794,7 +6824,7 @@
       <c r="M164" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="N164" s="5" t="s">
+      <c r="N164" s="3" t="s">
         <v>748</v>
       </c>
       <c r="O164" s="2" t="s">
@@ -6810,7 +6840,7 @@
       <c r="M165" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="N165" s="5" t="s">
+      <c r="N165" s="3" t="s">
         <v>750</v>
       </c>
       <c r="O165" s="2" t="s">
@@ -6826,7 +6856,7 @@
       <c r="M166" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="3" t="s">
         <v>753</v>
       </c>
       <c r="O166" s="2" t="s">
@@ -6842,7 +6872,7 @@
       <c r="M167" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="N167" s="5" t="s">
+      <c r="N167" s="3" t="s">
         <v>756</v>
       </c>
       <c r="O167" s="2" t="s">
@@ -6858,7 +6888,7 @@
       <c r="M168" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="3" t="s">
         <v>759</v>
       </c>
       <c r="O168" s="2" t="s">
@@ -6874,7 +6904,7 @@
       <c r="M169" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="N169" s="5" t="s">
+      <c r="N169" s="3" t="s">
         <v>762</v>
       </c>
       <c r="O169" s="2" t="s">
@@ -6890,7 +6920,7 @@
       <c r="M170" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="N170" s="5" t="s">
+      <c r="N170" s="3" t="s">
         <v>765</v>
       </c>
       <c r="O170" s="2" t="s">
@@ -6906,7 +6936,7 @@
       <c r="M171" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="N171" s="5" t="s">
+      <c r="N171" s="3" t="s">
         <v>768</v>
       </c>
       <c r="O171" s="2" t="s">
@@ -6922,7 +6952,7 @@
       <c r="M172" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="N172" s="5" t="s">
+      <c r="N172" s="3" t="s">
         <v>771</v>
       </c>
       <c r="O172" s="2" t="s">
@@ -6938,7 +6968,7 @@
       <c r="M173" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="N173" s="5" t="s">
+      <c r="N173" s="3" t="s">
         <v>774</v>
       </c>
       <c r="O173" s="2" t="s">
@@ -6954,7 +6984,7 @@
       <c r="M174" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="N174" s="5" t="s">
+      <c r="N174" s="3" t="s">
         <v>777</v>
       </c>
       <c r="O174" s="2" t="s">
@@ -6970,7 +7000,7 @@
       <c r="M175" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="3" t="s">
         <v>780</v>
       </c>
       <c r="O175" s="2" t="s">
@@ -6986,7 +7016,7 @@
       <c r="M176" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="N176" s="5" t="s">
+      <c r="N176" s="3" t="s">
         <v>783</v>
       </c>
       <c r="O176" s="2" t="s">
@@ -7002,7 +7032,7 @@
       <c r="M177" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="N177" s="5" t="s">
+      <c r="N177" s="3" t="s">
         <v>786</v>
       </c>
       <c r="O177" s="2" t="s">
@@ -7018,7 +7048,7 @@
       <c r="M178" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="N178" s="5" t="s">
+      <c r="N178" s="3" t="s">
         <v>789</v>
       </c>
       <c r="O178" s="2" t="s">
@@ -7034,7 +7064,7 @@
       <c r="M179" s="2" t="s">
         <v>791</v>
       </c>
-      <c r="N179" s="5" t="s">
+      <c r="N179" s="3" t="s">
         <v>792</v>
       </c>
       <c r="O179" s="2" t="s">
@@ -7050,7 +7080,7 @@
       <c r="M180" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="N180" s="5" t="s">
+      <c r="N180" s="3" t="s">
         <v>795</v>
       </c>
       <c r="O180" s="2" t="s">
@@ -7066,7 +7096,7 @@
       <c r="M181" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="N181" s="5" t="s">
+      <c r="N181" s="3" t="s">
         <v>798</v>
       </c>
       <c r="O181" s="2" t="s">
@@ -7082,7 +7112,7 @@
       <c r="M182" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="N182" s="5" t="s">
+      <c r="N182" s="3" t="s">
         <v>801</v>
       </c>
       <c r="O182" s="2" t="s">
@@ -7098,7 +7128,7 @@
       <c r="M183" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="N183" s="5" t="s">
+      <c r="N183" s="3" t="s">
         <v>804</v>
       </c>
       <c r="O183" s="2" t="s">
@@ -7114,7 +7144,7 @@
       <c r="M184" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="N184" s="5" t="s">
+      <c r="N184" s="3" t="s">
         <v>807</v>
       </c>
       <c r="O184" s="2" t="s">
@@ -7130,7 +7160,7 @@
       <c r="M185" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="N185" s="5" t="s">
+      <c r="N185" s="3" t="s">
         <v>810</v>
       </c>
       <c r="O185" s="2" t="s">
@@ -7146,7 +7176,7 @@
       <c r="M186" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="3" t="s">
         <v>813</v>
       </c>
       <c r="O186" s="2" t="s">
@@ -7162,7 +7192,7 @@
       <c r="M187" s="2" t="s">
         <v>815</v>
       </c>
-      <c r="N187" s="5" t="s">
+      <c r="N187" s="3" t="s">
         <v>816</v>
       </c>
       <c r="O187" s="2" t="s">
@@ -7178,7 +7208,7 @@
       <c r="M188" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="N188" s="5" t="s">
+      <c r="N188" s="3" t="s">
         <v>819</v>
       </c>
       <c r="O188" s="2" t="s">
@@ -7194,7 +7224,7 @@
       <c r="M189" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="3" t="s">
         <v>821</v>
       </c>
       <c r="O189" s="2" t="s">
@@ -7210,7 +7240,7 @@
       <c r="M190" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="N190" s="5" t="s">
+      <c r="N190" s="3" t="s">
         <v>824</v>
       </c>
       <c r="O190" s="2" t="s">
@@ -7226,7 +7256,7 @@
       <c r="M191" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="N191" s="5" t="s">
+      <c r="N191" s="3" t="s">
         <v>827</v>
       </c>
       <c r="O191" s="2" t="s">
@@ -7242,7 +7272,7 @@
       <c r="M192" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="N192" s="5" t="s">
+      <c r="N192" s="3" t="s">
         <v>830</v>
       </c>
       <c r="O192" s="2" t="s">
@@ -7258,7 +7288,7 @@
       <c r="M193" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="N193" s="5" t="s">
+      <c r="N193" s="3" t="s">
         <v>832</v>
       </c>
       <c r="O193" s="2" t="s">
@@ -7274,7 +7304,7 @@
       <c r="M194" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="N194" s="5" t="s">
+      <c r="N194" s="3" t="s">
         <v>835</v>
       </c>
       <c r="O194" s="2" t="s">
@@ -7290,7 +7320,7 @@
       <c r="M195" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="N195" s="5" t="s">
+      <c r="N195" s="3" t="s">
         <v>838</v>
       </c>
       <c r="O195" s="2" t="s">
@@ -7306,7 +7336,7 @@
       <c r="M196" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="N196" s="5" t="s">
+      <c r="N196" s="3" t="s">
         <v>841</v>
       </c>
       <c r="O196" s="2" t="s">
@@ -7322,7 +7352,7 @@
       <c r="M197" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="N197" s="5" t="s">
+      <c r="N197" s="3" t="s">
         <v>844</v>
       </c>
       <c r="O197" s="2" t="s">
@@ -7338,7 +7368,7 @@
       <c r="M198" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="N198" s="5" t="s">
+      <c r="N198" s="3" t="s">
         <v>847</v>
       </c>
       <c r="O198" s="2" t="s">
@@ -7354,7 +7384,7 @@
       <c r="M199" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="N199" s="5" t="s">
+      <c r="N199" s="3" t="s">
         <v>850</v>
       </c>
       <c r="O199" s="2" t="s">
@@ -7370,7 +7400,7 @@
       <c r="M200" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="N200" s="5" t="s">
+      <c r="N200" s="3" t="s">
         <v>853</v>
       </c>
       <c r="O200" s="2" t="s">
@@ -7386,7 +7416,7 @@
       <c r="M201" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="N201" s="5" t="s">
+      <c r="N201" s="3" t="s">
         <v>856</v>
       </c>
       <c r="O201" s="2" t="s">
@@ -7402,7 +7432,7 @@
       <c r="M202" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="N202" s="5" t="s">
+      <c r="N202" s="3" t="s">
         <v>859</v>
       </c>
       <c r="O202" s="2" t="s">
@@ -7418,7 +7448,7 @@
       <c r="M203" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="N203" s="5" t="s">
+      <c r="N203" s="3" t="s">
         <v>862</v>
       </c>
       <c r="O203" s="2" t="s">
@@ -7434,7 +7464,7 @@
       <c r="M204" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="N204" s="5" t="s">
+      <c r="N204" s="3" t="s">
         <v>865</v>
       </c>
       <c r="O204" s="2" t="s">
@@ -7450,7 +7480,7 @@
       <c r="M205" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="N205" s="5" t="s">
+      <c r="N205" s="3" t="s">
         <v>868</v>
       </c>
       <c r="O205" s="2" t="s">
@@ -7466,7 +7496,7 @@
       <c r="M206" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="N206" s="5" t="s">
+      <c r="N206" s="3" t="s">
         <v>871</v>
       </c>
       <c r="O206" s="2" t="s">
@@ -8885,4 +8915,55 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A541026-0879-4E14-A365-F0005BF6E022}">
+  <dimension ref="A3:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>44533.726354166669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>875</v>
+      </c>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="B6" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/数据文件.xlsx
+++ b/doc/数据文件.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Python\Calculation-Method-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4A75EB-0ABF-4922-A78B-B00427C100DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716C1D4-E711-4AF6-9E6C-334F2F0AE3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共轭梯度法" sheetId="1" r:id="rId1"/>
     <sheet name="最小二乘拟合" sheetId="2" r:id="rId2"/>
+    <sheet name="利用简单迭代法求解方程" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="877">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="931">
   <si>
     <t>Data-Time</t>
   </si>
@@ -2661,6 +2662,168 @@
   </si>
   <si>
     <t>0.0005744292123229425</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>k-error</t>
+  </si>
+  <si>
+    <t>4.333727087409172</t>
+  </si>
+  <si>
+    <t>4.333731209015353</t>
+  </si>
+  <si>
+    <t>4.121606180795823e-06</t>
+  </si>
+  <si>
+    <t>4.3337347316128065</t>
+  </si>
+  <si>
+    <t>3.52259745373118e-06</t>
+  </si>
+  <si>
+    <t>4.333737742257344</t>
+  </si>
+  <si>
+    <t>3.010644537226881e-06</t>
+  </si>
+  <si>
+    <t>4.333740315352793</t>
+  </si>
+  <si>
+    <t>2.5730954495983838e-06</t>
+  </si>
+  <si>
+    <t>4.333742514489707</t>
+  </si>
+  <si>
+    <t>2.199136913461075e-06</t>
+  </si>
+  <si>
+    <t>4.333744394016856</t>
+  </si>
+  <si>
+    <t>1.8795271490290588e-06</t>
+  </si>
+  <si>
+    <t>4.333746000384347</t>
+  </si>
+  <si>
+    <t>1.6063674914690296e-06</t>
+  </si>
+  <si>
+    <t>4.3337473732915495</t>
+  </si>
+  <si>
+    <t>1.372907202146223e-06</t>
+  </si>
+  <si>
+    <t>4.333748546668186</t>
+  </si>
+  <si>
+    <t>1.1733766367427734e-06</t>
+  </si>
+  <si>
+    <t>4.333749549512856</t>
+  </si>
+  <si>
+    <t>1.002844669528713e-06</t>
+  </si>
+  <si>
+    <t>4.333750406609683</t>
+  </si>
+  <si>
+    <t>8.570968272891832e-07</t>
+  </si>
+  <si>
+    <t>4.333751139140821</t>
+  </si>
+  <si>
+    <t>7.325311379702271e-07</t>
+  </si>
+  <si>
+    <t>4.3337517652099375</t>
+  </si>
+  <si>
+    <t>6.260691165493881e-07</t>
+  </si>
+  <si>
+    <t>4.33375230028962</t>
+  </si>
+  <si>
+    <t>5.350796827841009e-07</t>
+  </si>
+  <si>
+    <t>4.333752757603762</t>
+  </si>
+  <si>
+    <t>4.573141421104765e-07</t>
+  </si>
+  <si>
+    <t>4.333753148454373</t>
+  </si>
+  <si>
+    <t>3.9085061054322523e-07</t>
+  </si>
+  <si>
+    <t>4.333753482500893</t>
+  </si>
+  <si>
+    <t>3.3404652022284154e-07</t>
+  </si>
+  <si>
+    <t>4.333753767998915</t>
+  </si>
+  <si>
+    <t>2.854980216682179e-07</t>
+  </si>
+  <si>
+    <t>4.333754012004209</t>
+  </si>
+  <si>
+    <t>2.440052941921067e-07</t>
+  </si>
+  <si>
+    <t>4.333754220547101</t>
+  </si>
+  <si>
+    <t>2.0854289228822154e-07</t>
+  </si>
+  <si>
+    <t>4.333754398781502</t>
+  </si>
+  <si>
+    <t>1.782344005718528e-07</t>
+  </si>
+  <si>
+    <t>4.333754551112282</t>
+  </si>
+  <si>
+    <t>1.5233077998999534e-07</t>
+  </si>
+  <si>
+    <t>4.333754681304132</t>
+  </si>
+  <si>
+    <t>1.301918501894761e-07</t>
+  </si>
+  <si>
+    <t>4.333754792574604</t>
+  </si>
+  <si>
+    <t>1.1127047194747774e-07</t>
+  </si>
+  <si>
+    <t>4.333754887673628</t>
+  </si>
+  <si>
+    <t>9.509902376692025e-08</t>
   </si>
 </sst>
 </file>
@@ -2772,7 +2935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2801,12 +2964,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2814,6 +2971,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3116,28 +3285,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="G3" s="11" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="G3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="M3" s="11" t="s">
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="M3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3147,16 +3316,16 @@
         <v>44526.614618055559</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="13" t="s">
         <v>874</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="M4" s="10" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="M4" s="13" t="s">
         <v>873</v>
       </c>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -8921,7 +9090,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A541026-0879-4E14-A365-F0005BF6E022}">
   <dimension ref="A3:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -8932,22 +9101,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="12">
         <v>44533.726354166669</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>875</v>
       </c>
       <c r="B5" s="1"/>
@@ -8966,4 +9135,457 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2C7733-1918-4292-A18B-1C41680BAE09}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="257" width="9" style="1"/>
+    <col min="258" max="258" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="513" width="9" style="1"/>
+    <col min="514" max="514" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="769" width="9" style="1"/>
+    <col min="770" max="770" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="1025" width="9" style="1"/>
+    <col min="1026" max="1026" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1281" width="9" style="1"/>
+    <col min="1282" max="1282" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1537" width="9" style="1"/>
+    <col min="1538" max="1538" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1793" width="9" style="1"/>
+    <col min="1794" max="1794" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1795" max="2049" width="9" style="1"/>
+    <col min="2050" max="2050" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2305" width="9" style="1"/>
+    <col min="2306" max="2306" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2561" width="9" style="1"/>
+    <col min="2562" max="2562" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2817" width="9" style="1"/>
+    <col min="2818" max="2818" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2819" max="3073" width="9" style="1"/>
+    <col min="3074" max="3074" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3329" width="9" style="1"/>
+    <col min="3330" max="3330" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3585" width="9" style="1"/>
+    <col min="3586" max="3586" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3841" width="9" style="1"/>
+    <col min="3842" max="3842" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3843" max="4097" width="9" style="1"/>
+    <col min="4098" max="4098" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4353" width="9" style="1"/>
+    <col min="4354" max="4354" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4609" width="9" style="1"/>
+    <col min="4610" max="4610" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4865" width="9" style="1"/>
+    <col min="4866" max="4866" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4867" max="5121" width="9" style="1"/>
+    <col min="5122" max="5122" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5377" width="9" style="1"/>
+    <col min="5378" max="5378" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5633" width="9" style="1"/>
+    <col min="5634" max="5634" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5889" width="9" style="1"/>
+    <col min="5890" max="5890" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5891" max="6145" width="9" style="1"/>
+    <col min="6146" max="6146" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6401" width="9" style="1"/>
+    <col min="6402" max="6402" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6657" width="9" style="1"/>
+    <col min="6658" max="6658" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6913" width="9" style="1"/>
+    <col min="6914" max="6914" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6915" max="7169" width="9" style="1"/>
+    <col min="7170" max="7170" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7425" width="9" style="1"/>
+    <col min="7426" max="7426" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7681" width="9" style="1"/>
+    <col min="7682" max="7682" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7937" width="9" style="1"/>
+    <col min="7938" max="7938" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7939" max="8193" width="9" style="1"/>
+    <col min="8194" max="8194" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8449" width="9" style="1"/>
+    <col min="8450" max="8450" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8705" width="9" style="1"/>
+    <col min="8706" max="8706" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8961" width="9" style="1"/>
+    <col min="8962" max="8962" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8963" max="9217" width="9" style="1"/>
+    <col min="9218" max="9218" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9473" width="9" style="1"/>
+    <col min="9474" max="9474" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9729" width="9" style="1"/>
+    <col min="9730" max="9730" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9985" width="9" style="1"/>
+    <col min="9986" max="9986" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9987" max="10241" width="9" style="1"/>
+    <col min="10242" max="10242" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10497" width="9" style="1"/>
+    <col min="10498" max="10498" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10753" width="9" style="1"/>
+    <col min="10754" max="10754" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10755" max="11009" width="9" style="1"/>
+    <col min="11010" max="11010" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11265" width="9" style="1"/>
+    <col min="11266" max="11266" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11521" width="9" style="1"/>
+    <col min="11522" max="11522" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11777" width="9" style="1"/>
+    <col min="11778" max="11778" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11779" max="12033" width="9" style="1"/>
+    <col min="12034" max="12034" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12289" width="9" style="1"/>
+    <col min="12290" max="12290" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12545" width="9" style="1"/>
+    <col min="12546" max="12546" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12801" width="9" style="1"/>
+    <col min="12802" max="12802" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12803" max="13057" width="9" style="1"/>
+    <col min="13058" max="13058" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13313" width="9" style="1"/>
+    <col min="13314" max="13314" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13569" width="9" style="1"/>
+    <col min="13570" max="13570" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13825" width="9" style="1"/>
+    <col min="13826" max="13826" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13827" max="14081" width="9" style="1"/>
+    <col min="14082" max="14082" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14337" width="9" style="1"/>
+    <col min="14338" max="14338" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14593" width="9" style="1"/>
+    <col min="14594" max="14594" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14849" width="9" style="1"/>
+    <col min="14850" max="14850" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14851" max="15105" width="9" style="1"/>
+    <col min="15106" max="15106" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15361" width="9" style="1"/>
+    <col min="15362" max="15362" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15617" width="9" style="1"/>
+    <col min="15618" max="15618" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15873" width="9" style="1"/>
+    <col min="15874" max="15874" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15875" max="16129" width="9" style="1"/>
+    <col min="16130" max="16130" width="17.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16">
+        <v>44552.820590277777</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>877</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>878</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>885</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>930</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/数据文件.xlsx
+++ b/doc/数据文件.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Python\Calculation-Method-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2716C1D4-E711-4AF6-9E6C-334F2F0AE3CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61421E5E-33E3-4A76-91F5-4E03AD199E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共轭梯度法" sheetId="1" r:id="rId1"/>
     <sheet name="最小二乘拟合" sheetId="2" r:id="rId2"/>
     <sheet name="利用简单迭代法求解方程" sheetId="3" r:id="rId3"/>
+    <sheet name="利用牛顿法求解方程组" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="941">
   <si>
     <t>Data-Time</t>
   </si>
@@ -2824,6 +2825,36 @@
   </si>
   <si>
     <t>9.509902376692025e-08</t>
+  </si>
+  <si>
+    <t>the solutions</t>
+  </si>
+  <si>
+    <t>1.7320508075688772</t>
+  </si>
+  <si>
+    <t>0.698288609971514</t>
+  </si>
+  <si>
+    <t>0.6430097498961727</t>
+  </si>
+  <si>
+    <t>0.6285242979602138</t>
+  </si>
+  <si>
+    <t>0.17737340791092163</t>
+  </si>
+  <si>
+    <t>0.3425641896895695</t>
+  </si>
+  <si>
+    <t>0.015835038899463368</t>
+  </si>
+  <si>
+    <t>0.00013805972379237442</t>
+  </si>
+  <si>
+    <t>1.147964333297255e-08</t>
   </si>
 </sst>
 </file>
@@ -2973,17 +3004,17 @@
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3285,28 +3316,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="G3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="M3" s="14" t="s">
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="M3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -3316,16 +3347,16 @@
         <v>44526.614618055559</v>
       </c>
       <c r="C4" s="9"/>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="15" t="s">
         <v>874</v>
       </c>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="M4" s="13" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="M4" s="15" t="s">
         <v>873</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -9101,11 +9132,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
@@ -9141,8 +9172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D2C7733-1918-4292-A18B-1C41680BAE09}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9279,21 +9310,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16">
+      <c r="B1" s="14">
         <v>44552.820590277777</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>877</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>878</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>879</v>
       </c>
     </row>
@@ -9581,6 +9612,357 @@
       </c>
       <c r="C28" s="2" t="s">
         <v>930</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83204B9A-DB1C-4992-879D-CD5A70FE269A}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="256" width="9" style="1"/>
+    <col min="257" max="257" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="260" max="512" width="9" style="1"/>
+    <col min="513" max="513" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="516" max="768" width="9" style="1"/>
+    <col min="769" max="769" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="772" max="1024" width="9" style="1"/>
+    <col min="1025" max="1025" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1280" width="9" style="1"/>
+    <col min="1281" max="1281" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1284" max="1536" width="9" style="1"/>
+    <col min="1537" max="1537" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1540" max="1792" width="9" style="1"/>
+    <col min="1793" max="1793" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1796" max="2048" width="9" style="1"/>
+    <col min="2049" max="2049" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2052" max="2304" width="9" style="1"/>
+    <col min="2305" max="2305" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2308" max="2560" width="9" style="1"/>
+    <col min="2561" max="2561" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2564" max="2816" width="9" style="1"/>
+    <col min="2817" max="2817" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2820" max="3072" width="9" style="1"/>
+    <col min="3073" max="3073" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3076" max="3328" width="9" style="1"/>
+    <col min="3329" max="3329" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3332" max="3584" width="9" style="1"/>
+    <col min="3585" max="3585" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3588" max="3840" width="9" style="1"/>
+    <col min="3841" max="3841" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3844" max="4096" width="9" style="1"/>
+    <col min="4097" max="4097" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4100" max="4352" width="9" style="1"/>
+    <col min="4353" max="4353" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4356" max="4608" width="9" style="1"/>
+    <col min="4609" max="4609" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4612" max="4864" width="9" style="1"/>
+    <col min="4865" max="4865" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4868" max="5120" width="9" style="1"/>
+    <col min="5121" max="5121" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5124" max="5376" width="9" style="1"/>
+    <col min="5377" max="5377" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5380" max="5632" width="9" style="1"/>
+    <col min="5633" max="5633" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5636" max="5888" width="9" style="1"/>
+    <col min="5889" max="5889" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5892" max="6144" width="9" style="1"/>
+    <col min="6145" max="6145" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6148" max="6400" width="9" style="1"/>
+    <col min="6401" max="6401" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6404" max="6656" width="9" style="1"/>
+    <col min="6657" max="6657" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6660" max="6912" width="9" style="1"/>
+    <col min="6913" max="6913" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6916" max="7168" width="9" style="1"/>
+    <col min="7169" max="7169" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7172" max="7424" width="9" style="1"/>
+    <col min="7425" max="7425" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7428" max="7680" width="9" style="1"/>
+    <col min="7681" max="7681" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7684" max="7936" width="9" style="1"/>
+    <col min="7937" max="7937" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7940" max="8192" width="9" style="1"/>
+    <col min="8193" max="8193" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8196" max="8448" width="9" style="1"/>
+    <col min="8449" max="8449" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8452" max="8704" width="9" style="1"/>
+    <col min="8705" max="8705" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8708" max="8960" width="9" style="1"/>
+    <col min="8961" max="8961" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8964" max="9216" width="9" style="1"/>
+    <col min="9217" max="9217" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9220" max="9472" width="9" style="1"/>
+    <col min="9473" max="9473" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9476" max="9728" width="9" style="1"/>
+    <col min="9729" max="9729" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9732" max="9984" width="9" style="1"/>
+    <col min="9985" max="9985" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9988" max="10240" width="9" style="1"/>
+    <col min="10241" max="10241" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10244" max="10496" width="9" style="1"/>
+    <col min="10497" max="10497" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10500" max="10752" width="9" style="1"/>
+    <col min="10753" max="10753" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10756" max="11008" width="9" style="1"/>
+    <col min="11009" max="11009" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11012" max="11264" width="9" style="1"/>
+    <col min="11265" max="11265" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11268" max="11520" width="9" style="1"/>
+    <col min="11521" max="11521" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11524" max="11776" width="9" style="1"/>
+    <col min="11777" max="11777" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11780" max="12032" width="9" style="1"/>
+    <col min="12033" max="12033" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12036" max="12288" width="9" style="1"/>
+    <col min="12289" max="12289" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12292" max="12544" width="9" style="1"/>
+    <col min="12545" max="12545" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12548" max="12800" width="9" style="1"/>
+    <col min="12801" max="12801" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12804" max="13056" width="9" style="1"/>
+    <col min="13057" max="13057" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13060" max="13312" width="9" style="1"/>
+    <col min="13313" max="13313" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13316" max="13568" width="9" style="1"/>
+    <col min="13569" max="13569" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13572" max="13824" width="9" style="1"/>
+    <col min="13825" max="13825" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13828" max="14080" width="9" style="1"/>
+    <col min="14081" max="14081" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14084" max="14336" width="9" style="1"/>
+    <col min="14337" max="14337" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14340" max="14592" width="9" style="1"/>
+    <col min="14593" max="14593" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14596" max="14848" width="9" style="1"/>
+    <col min="14849" max="14849" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14852" max="15104" width="9" style="1"/>
+    <col min="15105" max="15105" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15108" max="15360" width="9" style="1"/>
+    <col min="15361" max="15361" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15364" max="15616" width="9" style="1"/>
+    <col min="15617" max="15617" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15620" max="15872" width="9" style="1"/>
+    <col min="15873" max="15873" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15876" max="16128" width="9" style="1"/>
+    <col min="16129" max="16129" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="21.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="17.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16132" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14">
+        <v>44553.837858796294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/doc/数据文件.xlsx
+++ b/doc/数据文件.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Python\Calculation-Method-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61421E5E-33E3-4A76-91F5-4E03AD199E4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3A361B-1816-4C61-A682-19BC789090BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共轭梯度法" sheetId="1" r:id="rId1"/>
     <sheet name="最小二乘拟合" sheetId="2" r:id="rId2"/>
     <sheet name="利用简单迭代法求解方程" sheetId="3" r:id="rId3"/>
-    <sheet name="利用牛顿法求解方程组" sheetId="4" r:id="rId4"/>
+    <sheet name="利用牛顿法求解非线性方程" sheetId="5" r:id="rId4"/>
+    <sheet name="利用牛顿法求解方程组" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="941">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="966">
   <si>
     <t>Data-Time</t>
   </si>
@@ -2855,6 +2856,81 @@
   </si>
   <si>
     <t>1.147964333297255e-08</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>4.333755446919995</t>
+  </si>
+  <si>
+    <t>1.8181818181818183</t>
+  </si>
+  <si>
+    <t>56.40003289820552</t>
+  </si>
+  <si>
+    <t>9.116866552027275</t>
+  </si>
+  <si>
+    <t>7.595719869386393</t>
+  </si>
+  <si>
+    <t>6.327720292524845</t>
+  </si>
+  <si>
+    <t>5.2705795101819355</t>
+  </si>
+  <si>
+    <t>4.389026330606303</t>
+  </si>
+  <si>
+    <t>3.653624281604536</t>
+  </si>
+  <si>
+    <t>3.039779337616473</t>
+  </si>
+  <si>
+    <t>2.5269014588729277</t>
+  </si>
+  <si>
+    <t>2.097686011456748</t>
+  </si>
+  <si>
+    <t>1.7374797951823169</t>
+  </si>
+  <si>
+    <t>1.4336887499626165</t>
+  </si>
+  <si>
+    <t>1.1751657644151479</t>
+  </si>
+  <si>
+    <t>0.9514830369093898</t>
+  </si>
+  <si>
+    <t>0.7519684193027896</t>
+  </si>
+  <si>
+    <t>0.5646116651123565</t>
+  </si>
+  <si>
+    <t>0.3768685596456951</t>
+  </si>
+  <si>
+    <t>0.18870625945887198</t>
+  </si>
+  <si>
+    <t>0.04745264164032381</t>
+  </si>
+  <si>
+    <t>0.0027581398848823824</t>
+  </si>
+  <si>
+    <t>8.957217652039162e-06</t>
+  </si>
+  <si>
+    <t>9.422329583230749e-11</t>
   </si>
 </sst>
 </file>
@@ -2901,7 +2977,7 @@
       <u/>
       <sz val="10"/>
       <name val="Times New Roman"/>
-      <charset val="1"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -9622,10 +9698,269 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53D4316-A26C-48FA-8F1A-8C871C3040CC}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14">
+        <v>44553.843715277777</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>957</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83204B9A-DB1C-4992-879D-CD5A70FE269A}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>

--- a/doc/数据文件.xlsx
+++ b/doc/数据文件.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Python\Calculation-Method-\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF3A361B-1816-4C61-A682-19BC789090BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C205A79-9984-47C0-888C-410DE3C76ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="共轭梯度法" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="利用简单迭代法求解方程" sheetId="3" r:id="rId3"/>
     <sheet name="利用牛顿法求解非线性方程" sheetId="5" r:id="rId4"/>
     <sheet name="利用牛顿法求解方程组" sheetId="4" r:id="rId5"/>
+    <sheet name="利用布洛依登法求解方程组" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="966">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="984">
   <si>
     <t>Data-Time</t>
   </si>
@@ -2931,13 +2932,67 @@
   </si>
   <si>
     <t>9.422329583230749e-11</t>
+  </si>
+  <si>
+    <t>0.6982886012017876</t>
+  </si>
+  <si>
+    <t>0.6285243227001268</t>
+  </si>
+  <si>
+    <t>0.12602155499594742</t>
+  </si>
+  <si>
+    <t>0.34256418664506944</t>
+  </si>
+  <si>
+    <t>0.04353116240070049</t>
+  </si>
+  <si>
+    <t>0.0159140006417134</t>
+  </si>
+  <si>
+    <t>0.005748666515428022</t>
+  </si>
+  <si>
+    <t>0.002019916295373455</t>
+  </si>
+  <si>
+    <t>0.0006916005436671505</t>
+  </si>
+  <si>
+    <t>0.00023253854128410482</t>
+  </si>
+  <si>
+    <t>7.752037974276066e-05</t>
+  </si>
+  <si>
+    <t>2.587292080704481e-05</t>
+  </si>
+  <si>
+    <t>8.718706064522033e-06</t>
+  </si>
+  <si>
+    <t>2.982917532896516e-06</t>
+  </si>
+  <si>
+    <t>1.0377603665849828e-06</t>
+  </si>
+  <si>
+    <t>3.663895953006927e-07</t>
+  </si>
+  <si>
+    <t>1.3074818052271382e-07</t>
+  </si>
+  <si>
+    <t>4.69590849598323e-08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2978,6 +3033,14 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -3042,7 +3105,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3091,6 +3154,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9701,7 +9767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53D4316-A26C-48FA-8F1A-8C871C3040CC}">
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C26"/>
     </sheetView>
   </sheetViews>
@@ -10305,4 +10371,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C980EFB6-B86F-4768-BF2A-1C6F92E2DE8E}">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14">
+        <v>44553.877083333333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>983</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>